--- a/biology/Médecine/Choriorétinite_pigmentaire/Choriorétinite_pigmentaire.xlsx
+++ b/biology/Médecine/Choriorétinite_pigmentaire/Choriorétinite_pigmentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinite_pigmentaire</t>
+          <t>Choriorétinite_pigmentaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La choriorétinite pigmentaire est une atteinte des pigments de l'œil, par inflammation de la choroïde et de la rétine.
 Nom commun, féminin, composé de :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinite_pigmentaire</t>
+          <t>Choriorétinite_pigmentaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,6 +529,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinite_pigmentaire</t>
+          <t>Choriorétinite_pigmentaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forme la plus courante est la choriorétinite toxoplasmique, inflammation consécutive à la contamination congénitale par le toxoplasme[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme la plus courante est la choriorétinite toxoplasmique, inflammation consécutive à la contamination congénitale par le toxoplasme.
 Dans environ 80 % des cas, l'enfant est indemne à la naissance mais est porteur d'anticorps caractéristiques, les IgM.
 La toxoplasmose se déclare plus tard dans sa vie, en général à l'adolescence. Il s'ensuit des lésions oculaires généralement faciles à reconnaître, jaunâtres qui peuvent être paramaculaires ou parapapillaires. Il en résulte des cicatrices pigmentées à l'emplacement desquelles la vision est déformée ou absente.
 Le CMV peut également engendrer une choriorétinite dans le cadre de la maladie des inclusions cytomegaliques.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinite_pigmentaire</t>
+          <t>Choriorétinite_pigmentaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinite_pigmentaire</t>
+          <t>Choriorétinite_pigmentaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,16 +618,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Signes fonctionnels
-Examen clinique
-Examens complémentaires</t>
-        </is>
-      </c>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -617,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinite_pigmentaire</t>
+          <t>Choriorétinite_pigmentaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,10 +646,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
+          <t>Évolution et complications</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -643,7 +659,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinite_pigmentaire</t>
+          <t>Choriorétinite_pigmentaire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -658,36 +674,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Évolution et complications</t>
+          <t>Prévention</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chorior%C3%A9tinite_pigmentaire</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chorior%C3%A9tinite_pigmentaire</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Prévention</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
